--- a/pre_workshop_survey/indicator_dataset_ES/indicator_dataset_ES.xlsx
+++ b/pre_workshop_survey/indicator_dataset_ES/indicator_dataset_ES.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="carbon" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="biodiversity" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="recreation" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="78">
   <si>
     <t>Full name</t>
   </si>
@@ -193,12 +194,75 @@
   <si>
     <t>30 x 30 Biodiversity explorer: https://experience.arcgis.com/experience/a18f7afb32784a29a4bbb88b570bc2a3</t>
   </si>
+  <si>
+    <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify recreation in your area(s)? (Example: Indicator 1: visitor number/year, Dataset 1: publicly available geotagged Instagram posts)
+</t>
+  </si>
+  <si>
+    <t>Indicator 1: Recreation infrastructure and trails, Dataset 1: spatial data on recreation infrastructure (e.g., from USFS)
+Indicator 2: Social media and other data on visitor use - see datasets highlighted in Merrill et al. 2025 paper - https://www.nature.com/articles/s41598-025-26926-w
+Indicator 3: mobile device data</t>
+  </si>
+  <si>
+    <t>Recreation infrastructure and trails</t>
+  </si>
+  <si>
+    <t>spatial data on recreation infrastructure (e.g., from USFS)</t>
+  </si>
+  <si>
+    <t>Social media and other data on visitor use</t>
+  </si>
+  <si>
+    <t>Merrill et al. 2025 paper - https://www.nature.com/articles/s41598-025-26926-w</t>
+  </si>
+  <si>
+    <t>mobile device data</t>
+  </si>
+  <si>
+    <t>1: Visitation estimates, 1: USFS NVUM</t>
+  </si>
+  <si>
+    <t>Visitation estimates</t>
+  </si>
+  <si>
+    <t>USFS NVUM</t>
+  </si>
+  <si>
+    <t>NVUM (USFS National Visitor Use Monitoring)</t>
+  </si>
+  <si>
+    <t>Indicator 1: Defects of standing trees in recreation areas, Dataset 1a: local hazard tree surveys or Dataset 1b. knowledge that root disease is causing tree failures on site by walk-through; Indicator 2: mortality of trees in recreation areas, Dataset 2a: burn severity data, 2b: local hazard tree surveys</t>
+  </si>
+  <si>
+    <t>Defects of standing trees in recreation areas</t>
+  </si>
+  <si>
+    <t>local hazard tree surveys</t>
+  </si>
+  <si>
+    <t>knowledge that root disease is causing tree failures on site by walk-through</t>
+  </si>
+  <si>
+    <t>mortality of trees in recreation areas</t>
+  </si>
+  <si>
+    <t>burn severity data</t>
+  </si>
+  <si>
+    <t>Indicator: visitor number per year, Dataset 1: NVUM (USFS National Visitor Use Monitoring); Dataset 2: Tourism Impact Model</t>
+  </si>
+  <si>
+    <t>visitor number per year</t>
+  </si>
+  <si>
+    <t>Tourism Impact Model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -224,6 +288,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -264,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -305,6 +374,12 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -350,7 +425,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="4">
+  <tableStyles count="6">
     <tableStyle count="3" pivot="0" name="carbon-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -371,6 +446,16 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="3" pivot="0" name="recreation-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="recreation-style 2">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
@@ -380,6 +465,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -424,6 +513,28 @@
     <tableColumn name="Dataset (consistent name)" id="5"/>
   </tableColumns>
   <tableStyleInfo name="biodiversity-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A13" displayName="Table_5" name="Table_5" id="5">
+  <tableColumns count="1">
+    <tableColumn name="Full name" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="recreation-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F13" displayName="Table_6" name="Table_6" id="6">
+  <tableColumns count="5">
+    <tableColumn name="What indicator(s) and dataset(s) would you use to quantify recreation in your area(s)? (Example: Indicator 1: visitor number/year, Dataset 1: publicly available geotagged Instagram posts)_x000a_" id="1"/>
+    <tableColumn name="Indicator" id="2"/>
+    <tableColumn name="Dataset" id="3"/>
+    <tableColumn name="Indicator (consistent name)" id="4"/>
+    <tableColumn name="Dataset (consistent name)" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="recreation-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -9262,4 +9373,511 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="33.75"/>
+    <col customWidth="1" min="5" max="5" width="33.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/pre_workshop_survey/indicator_dataset_ES/indicator_dataset_ES.xlsx
+++ b/pre_workshop_survey/indicator_dataset_ES/indicator_dataset_ES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="243">
   <si>
     <t>Full name</t>
   </si>
@@ -119,7 +119,7 @@
     <t>National Forest level carbon stock data</t>
   </si>
   <si>
-    <t>https://public.tableau.com/app/profile/usda.forest.service/viz/Carbon_Dashboard_Public_17056983339290/Dashboard</t>
+    <t>USFS Carbon Dashboard</t>
   </si>
   <si>
     <t>Live aboveground and dead carbon</t>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Live aboveground and dead carbon data</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
   </si>
   <si>
     <t>Aboveground Carbon</t>
@@ -147,6 +150,9 @@
     <t>treemap</t>
   </si>
   <si>
+    <t>Total aboveground carbon</t>
+  </si>
+  <si>
     <t>FIA</t>
   </si>
   <si>
@@ -205,6 +211,40 @@
   </si>
   <si>
     <t>Lidar canopy height</t>
+  </si>
+  <si>
+    <t>Dana Skelly</t>
+  </si>
+  <si>
+    <t>I do not typically quantify this in my work.</t>
+  </si>
+  <si>
+    <t>Michelle Coppoletta</t>
+  </si>
+  <si>
+    <t>Total aboveground carbon - California Regional Resource Kits (https://caregionalresourcekits.org/clm.html)
+Could also look at TreeMap (Carbon - live and dead)</t>
+  </si>
+  <si>
+    <t>California Regional Resource Kits (https://caregionalresourcekits.org/clm.html)</t>
+  </si>
+  <si>
+    <t>Carbon - live and dead</t>
+  </si>
+  <si>
+    <t>Frank Koch</t>
+  </si>
+  <si>
+    <t>Indicator 1: aboveground biomass, Dataset 1: FIA BIGMAP aboveground biomass geospatial layers; Indicator 2: carbon storage, stocks, disturbance effects on carbon, Dataset 2: USFS Carbon Dashboard (national forests only, I think)</t>
+  </si>
+  <si>
+    <t>FIA BIGMAP aboveground biomass geospatial layers</t>
+  </si>
+  <si>
+    <t>carbon storage, stocks, disturbance effects on carbon</t>
+  </si>
+  <si>
+    <t>Meghan Woods</t>
   </si>
   <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify biodiversity in your area(s)? (Example: Indicator 1: species richness, Dataset 1: TreeMap forest type)
@@ -223,6 +263,9 @@
     <t>GNN</t>
   </si>
   <si>
+    <t>Landscape Ecology Modeling, Mapping &amp; Analysis (LEMMA) Gradient Nearest Neighbor (GNN) imputations</t>
+  </si>
+  <si>
     <t>Could look at vegetation types using Potential Natural Vegetation maps
 Or could look at habitat maps for certain species (e.g., Northern Spotted Owl)</t>
   </si>
@@ -290,6 +333,49 @@
   </si>
   <si>
     <t>NAIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicator 1: Plot-based species richness, Dataset 1: FIA plot data (species presence/abundance at each plot), especially where understory subplots are incorporated. Dataset 2: vegetation plot data from other networks (e.g. USFS regional ecology, research forest data, NPS inventory and monitoring network data)
+</t>
+  </si>
+  <si>
+    <t>Plot-based species richness</t>
+  </si>
+  <si>
+    <t>FIA plot data (species presence/abundance at each plot), especially where understory subplots are incorporated.</t>
+  </si>
+  <si>
+    <t>vegetation plot data from other networks (e.g. USFS regional ecology, research forest data, NPS inventory and monitoring network data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildlife species richness; functional group species richness (California Regional Resource Kits) </t>
+  </si>
+  <si>
+    <t>Wildlife species richness</t>
+  </si>
+  <si>
+    <t>functional group species richness</t>
+  </si>
+  <si>
+    <t>California Regional Resource Kits</t>
+  </si>
+  <si>
+    <t>Indicator 1: tree species richness, Dataset 1: FIA NFI data; Indicator 2: understory species richness, Dataset 2: FIA NFI data; Indicator 3: species richness and related biodiversity metrics by 12-digit HUC, Dataset 3: EnviroAtlas, EPA and USGS National Gap Analysis Project</t>
+  </si>
+  <si>
+    <t>tree species richness</t>
+  </si>
+  <si>
+    <t>FIA NFI data</t>
+  </si>
+  <si>
+    <t>understory species richness</t>
+  </si>
+  <si>
+    <t>pecies richness and related biodiversity metrics by 12-digit HUC</t>
+  </si>
+  <si>
+    <t>EnviroAtlas, EPA and USGS National Gap Analysis Project</t>
   </si>
   <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify recreation in your area(s)? (Example: Indicator 1: visitor number/year, Dataset 1: publicly available geotagged Instagram posts)
@@ -371,6 +457,12 @@
     <t>Estimated income procured from hunting and fishing industry, as well as camping, hiking and river permitting.</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Indicator 1: annual visitor numbers by activity category, Dataset 1: National Visitor Use Monitoring (NVUM) survey, which is limited to national forest land</t>
+  </si>
+  <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify soil erosion control in your area(s)? (Example: Indicator 1: vegetation cover, Dataset 1: LANDFIRE's Existing Vegetation Type)
 </t>
   </si>
@@ -430,6 +522,17 @@
     <t>R6 Potential Vegetation Type  layer</t>
   </si>
   <si>
+    <t xml:space="preserve">•	Indicator 1: Change in Soil reflectivity post fire
+o	Dataset 1: BARC (Burned Area Reflectance Classification) mapping completed as part of BAER assessments.    https://burnseverity.cr.usgs.gov/products/baer  
+</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>not an area of expertise</t>
+  </si>
+  <si>
     <t>What indicator(s) and dataset(s) would you use to quantify timber production in your area(s)? (Example: Indicator 1: Timber volume per hectare, Dataset 1: The Forest Inventory and Analysis tree vo...</t>
   </si>
   <si>
@@ -535,6 +638,17 @@
   </si>
   <si>
     <t>FIA tree volume breakouts by age and size class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Indicator 1: Timber volume per hectare (by species and age class)
+o	Dataset 1a: Current Vegetative Survey data taken from USFS Forest Inventory and Analysis (FIA) plot data.
+o	Dataset 1b: Historic timber survey data from the 1910s-1930s. Note from Amell (2016), p. 5: “Comparing the historic survey data and more recently acquired CVS data shows that forest stocking, species compositions, and dead tree numbers have changed substantially over time and using the CVS data from non-harvested plots portrays a much different picture for “reference” conditions than truly historic data does.” https://www.bluemountainsforestpartners.org/s/Historical-Comparison-of-Forest-Types-on-the-Malheur-National-Forest-Amell-2016.pdf  </t>
+  </si>
+  <si>
+    <t>Timber volume (sawlog board-ft/acre) - TreeMap (volume estimates)</t>
+  </si>
+  <si>
+    <t>Indicator 1: removed timber volumes through time (and as a proportion of total volume) by species group and ownership, Dataset 1: Forest Inventory and Analysis Nationwide Forest Inventory (NFI) data; Indicator 2: harvest utilization data, Dataset 2: USFS National Resource Use Monitoring (NRUM)</t>
   </si>
   <si>
     <t>What indicator(s) and dataset(s) would you use to quantify water supply in your area(s)? (Example: Indicator 1: Annual precipitation, Dataset 1: PRISM daily precipitation)</t>
@@ -659,12 +773,21 @@
   <si>
     <t xml:space="preserve">PRISM weekly/monthly </t>
   </si>
+  <si>
+    <t>Indicator: Historic annual precipitation, Dataset: data produced by the Northwest River Forecast Center (https://www.nwrfc.noaa.gov/ws/ws_info.php) which uses the Ensemble Streamflow Prediction (ESP) modelling tool.</t>
+  </si>
+  <si>
+    <t>Snowpack (snow water equivalent): available on Cal-Adapt (not sure the source) or Airborne Snow Observatory; Precipitation: PRISM, Evapotranspiration, Runoff and baseflow (also available on Cal-Adapt)</t>
+  </si>
+  <si>
+    <t>Indicator 1: annual precipitation, Dataset 1: PRISM daily precipitation; Indicator 2: daily streamflow, Dataset 2: USGS Daily Streamflow Conditions data; Indicator 3: hydrologic network flow connectivity, Dataset 3: USGS National Hydrography Dataset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -682,19 +805,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
       <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -740,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -768,7 +885,7 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -789,6 +906,9 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -796,11 +916,14 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -808,7 +931,7 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -965,7 +1088,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A21" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A27" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -983,7 +1106,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F13" displayName="Table_11" name="Table_11" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F17" displayName="Table_11" name="Table_11" id="11">
   <tableColumns count="6">
     <tableColumn name="Full name" id="1"/>
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify soil erosion control in your area(s)? (Example: Indicator 1: vegetation cover, Dataset 1: LANDFIRE's Existing Vegetation Type)_x000a_" id="2"/>
@@ -1011,7 +1134,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A18:F22" displayName="Table_13" name="Table_13" id="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A18:F26" displayName="Table_13" name="Table_13" id="13">
   <tableColumns count="6">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1072,7 +1195,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A32:C32" displayName="Table_18" name="Table_18" id="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A32:C36" displayName="Table_18" name="Table_18" id="18">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1083,7 +1206,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:H1004" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:H1006" displayName="Table_2" name="Table_2" id="2">
   <tableColumns count="7">
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify carbon storage in your area(s)? (Example: Indicator 1: aboveground biomass, Dataset 1: GEDI LiDAR canopy height)_x000a_" id="1"/>
     <tableColumn name="Indicator" id="2"/>
@@ -1098,7 +1221,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A16" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A24" displayName="Table_3" name="Table_3" id="3">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -1107,7 +1230,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F16" displayName="Table_4" name="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F24" displayName="Table_4" name="Table_4" id="4">
   <tableColumns count="5">
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify biodiversity in your area(s)? (Example: Indicator 1: species richness, Dataset 1: TreeMap forest type)_x000a_" id="1"/>
     <tableColumn name="Indicator" id="2"/>
@@ -1155,7 +1278,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A17" displayName="Table_8" name="Table_8" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A17:A21" displayName="Table_8" name="Table_8" id="8">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -1164,7 +1287,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B17:C17" displayName="Table_9" name="Table_9" id="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B17:C21" displayName="Table_9" name="Table_9" id="9">
   <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1373,7 +1496,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -1499,9 +1625,7 @@
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1650,11 +1774,11 @@
       <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
+      <c r="F11" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>26</v>
@@ -1662,25 +1786,25 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>26</v>
@@ -1688,22 +1812,22 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>12</v>
@@ -1714,7 +1838,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1726,25 +1850,25 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>26</v>
@@ -1752,22 +1876,22 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="8" t="s">
@@ -1776,113 +1900,117 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1891,48 +2019,98 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -11710,14 +11888,31 @@
       <c r="G1004" s="7"/>
       <c r="H1004" s="7"/>
     </row>
+    <row r="1005">
+      <c r="A1005" s="12"/>
+      <c r="B1005" s="12"/>
+      <c r="C1005" s="7"/>
+      <c r="D1005" s="7"/>
+      <c r="E1005" s="7"/>
+      <c r="F1005" s="7"/>
+      <c r="G1005" s="7"/>
+      <c r="H1005" s="7"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="12"/>
+      <c r="B1006" s="12"/>
+      <c r="C1006" s="7"/>
+      <c r="D1006" s="7"/>
+      <c r="E1006" s="7"/>
+      <c r="F1006" s="7"/>
+      <c r="G1006" s="7"/>
+      <c r="H1006" s="7"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="F10"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
+    <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11728,7 +11923,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -11741,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -11811,19 +12009,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -11851,19 +12049,17 @@
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -11891,19 +12087,19 @@
         <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -11931,15 +12127,15 @@
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -11964,22 +12160,22 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -12004,22 +12200,22 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -12044,13 +12240,13 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -12074,17 +12270,17 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
@@ -12110,19 +12306,19 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="D11" s="18"/>
       <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -12146,91 +12342,235 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>79</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="16" t="s">
-        <v>80</v>
+      <c r="D12" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="16" t="s">
-        <v>80</v>
+      <c r="F12" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>83</v>
+        <v>96</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>83</v>
+        <v>96</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="5" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="5" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12260,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -12329,11 +12669,11 @@
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -12360,19 +12700,19 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -12400,19 +12740,19 @@
         <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -12440,14 +12780,14 @@
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="4" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
@@ -12473,22 +12813,22 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>99</v>
+        <v>125</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -12513,22 +12853,22 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -12553,18 +12893,18 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -12589,22 +12929,22 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -12629,18 +12969,18 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -12665,22 +13005,22 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>97</v>
+        <v>127</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -12705,18 +13045,18 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="E13" s="20"/>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -12741,15 +13081,15 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -12758,37 +13098,71 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12821,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -12890,11 +13264,11 @@
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -12921,14 +13295,14 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="14"/>
@@ -12954,22 +13328,22 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -12994,22 +13368,22 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -13034,22 +13408,22 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -13074,7 +13448,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -13104,13 +13478,13 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -13134,13 +13508,13 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -13164,63 +13538,109 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>126</v>
+        <v>154</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>128</v>
+        <v>154</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>131</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13248,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -13271,436 +13691,482 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+        <v>170</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+        <v>176</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+        <v>179</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>180</v>
+      </c>
+      <c r="D8" s="18"/>
       <c r="E8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+        <v>182</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+        <v>187</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+        <v>188</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+        <v>190</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="17"/>
+        <v>191</v>
+      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+        <v>191</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>136</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13729,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -13751,509 +14217,509 @@
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+        <v>206</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+        <v>207</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+        <v>210</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+        <v>207</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+        <v>207</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+        <v>210</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="17"/>
+        <v>215</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+        <v>215</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+        <v>217</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>218</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+        <v>218</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>219</v>
+      </c>
+      <c r="D12" s="18"/>
       <c r="E12" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+        <v>219</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+        <v>220</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+        <v>222</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>213</v>
+      </c>
+      <c r="C15" s="18"/>
       <c r="D15" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="17"/>
+        <v>223</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+        <v>223</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>213</v>
+      </c>
+      <c r="C16" s="18"/>
       <c r="D16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="17"/>
+        <v>224</v>
+      </c>
+      <c r="E16" s="18"/>
       <c r="F16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+        <v>224</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+        <v>210</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+        <v>226</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+        <v>227</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+        <v>210</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22">
-      <c r="A22" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="A22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23">
-      <c r="A23" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>193</v>
+      <c r="A23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>172</v>
+        <v>216</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>172</v>
+        <v>216</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>193</v>
+      <c r="A24" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>172</v>
+        <v>231</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>172</v>
+        <v>231</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>193</v>
+      <c r="A25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>172</v>
+        <v>232</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>172</v>
+        <v>232</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -14261,77 +14727,111 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>197</v>
+        <v>50</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>203</v>
-      </c>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/pre_workshop_survey/indicator_dataset_ES/indicator_dataset_ES.xlsx
+++ b/pre_workshop_survey/indicator_dataset_ES/indicator_dataset_ES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="271">
   <si>
     <t>Full name</t>
   </si>
@@ -320,6 +320,9 @@
     <t>combination of FVEG and LiDAR</t>
   </si>
   <si>
+    <t>California Wildlife Habitat Relationships (CWHR)</t>
+  </si>
+  <si>
     <t>Suitable habitat for specific species</t>
   </si>
   <si>
@@ -372,10 +375,13 @@
     <t>understory species richness</t>
   </si>
   <si>
+    <t>Species richness and related biodiversity metrics by 12-digit HUC</t>
+  </si>
+  <si>
+    <t>EnviroAtlas, EPA and USGS National Gap Analysis Project</t>
+  </si>
+  <si>
     <t>pecies richness and related biodiversity metrics by 12-digit HUC</t>
-  </si>
-  <si>
-    <t>EnviroAtlas, EPA and USGS National Gap Analysis Project</t>
   </si>
   <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify recreation in your area(s)? (Example: Indicator 1: visitor number/year, Dataset 1: publicly available geotagged Instagram posts)
@@ -463,6 +469,12 @@
     <t>Indicator 1: annual visitor numbers by activity category, Dataset 1: National Visitor Use Monitoring (NVUM) survey, which is limited to national forest land</t>
   </si>
   <si>
+    <t>annual visitor numbers by activity category</t>
+  </si>
+  <si>
+    <t>National Visitor Use Monitoring (NVUM) survey, which is limited to national forest land</t>
+  </si>
+  <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify soil erosion control in your area(s)? (Example: Indicator 1: vegetation cover, Dataset 1: LANDFIRE's Existing Vegetation Type)
 </t>
   </si>
@@ -522,9 +534,15 @@
     <t>R6 Potential Vegetation Type  layer</t>
   </si>
   <si>
-    <t xml:space="preserve">•	Indicator 1: Change in Soil reflectivity post fire
-o	Dataset 1: BARC (Burned Area Reflectance Classification) mapping completed as part of BAER assessments.    https://burnseverity.cr.usgs.gov/products/baer  
+    <t xml:space="preserve">•        Indicator 1: Change in Soil reflectivity post fire
+o        Dataset 1: BARC (Burned Area Reflectance Classification) mapping completed as part of BAER assessments.    https://burnseverity.cr.usgs.gov/products/baer  
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Change in Soil reflectivity post fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARC (Burned Area Reflectance Classification) mapping completed as part of BAER assessments.    https://burnseverity.cr.usgs.gov/products/baer  </t>
   </si>
   <si>
     <t>Not sure</t>
@@ -640,15 +658,45 @@
     <t>FIA tree volume breakouts by age and size class</t>
   </si>
   <si>
-    <t xml:space="preserve">•	Indicator 1: Timber volume per hectare (by species and age class)
-o	Dataset 1a: Current Vegetative Survey data taken from USFS Forest Inventory and Analysis (FIA) plot data.
-o	Dataset 1b: Historic timber survey data from the 1910s-1930s. Note from Amell (2016), p. 5: “Comparing the historic survey data and more recently acquired CVS data shows that forest stocking, species compositions, and dead tree numbers have changed substantially over time and using the CVS data from non-harvested plots portrays a much different picture for “reference” conditions than truly historic data does.” https://www.bluemountainsforestpartners.org/s/Historical-Comparison-of-Forest-Types-on-the-Malheur-National-Forest-Amell-2016.pdf  </t>
+    <t xml:space="preserve">•        Indicator 1: Timber volume per hectare (by species and age class)
+o        Dataset 1a: Current Vegetative Survey data taken from USFS Forest Inventory and Analysis (FIA) plot data.
+o        Dataset 1b: Historic timber survey data from the 1910s-1930s. Note from Amell (2016), p. 5: “Comparing the historic survey data and more recently acquired CVS data shows that forest stocking, species compositions, and dead tree numbers have changed substantially over time and using the CVS data from non-harvested plots portrays a much different picture for “reference” conditions than truly historic data does.” https://www.bluemountainsforestpartners.org/s/Historical-Comparison-of-Forest-Types-on-the-Malheur-National-Forest-Amell-2016.pdf  </t>
+  </si>
+  <si>
+    <t>Timber volume per hectare (by species and age class)</t>
+  </si>
+  <si>
+    <t>Current Vegetative Survey data taken from USFS Forest Inventory and Analysis (FIA) plot data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timber volume per hectare (by species and age class)</t>
+  </si>
+  <si>
+    <t>Historic timber survey data from the 1910s-1930s</t>
   </si>
   <si>
     <t>Timber volume (sawlog board-ft/acre) - TreeMap (volume estimates)</t>
   </si>
   <si>
+    <t>Timber volume (sawlog board-ft/acre)</t>
+  </si>
+  <si>
+    <t>TreeMap (volume estimates)</t>
+  </si>
+  <si>
     <t>Indicator 1: removed timber volumes through time (and as a proportion of total volume) by species group and ownership, Dataset 1: Forest Inventory and Analysis Nationwide Forest Inventory (NFI) data; Indicator 2: harvest utilization data, Dataset 2: USFS National Resource Use Monitoring (NRUM)</t>
+  </si>
+  <si>
+    <t>removed timber volumes through time (and as a proportion of total volume) by species group and ownership</t>
+  </si>
+  <si>
+    <t>Forest Inventory and Analysis Nationwide Forest Inventory (NFI) data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> harvest utilization data</t>
+  </si>
+  <si>
+    <t>USFS National Resource Use Monitoring (NRUM)</t>
   </si>
   <si>
     <t>What indicator(s) and dataset(s) would you use to quantify water supply in your area(s)? (Example: Indicator 1: Annual precipitation, Dataset 1: PRISM daily precipitation)</t>
@@ -777,10 +825,46 @@
     <t>Indicator: Historic annual precipitation, Dataset: data produced by the Northwest River Forecast Center (https://www.nwrfc.noaa.gov/ws/ws_info.php) which uses the Ensemble Streamflow Prediction (ESP) modelling tool.</t>
   </si>
   <si>
+    <t>Historic annual precipitation</t>
+  </si>
+  <si>
+    <t>data produced by the Northwest River Forecast Center (https://www.nwrfc.noaa.gov/ws/ws_info.php) which uses the Ensemble Streamflow Prediction (ESP) modelling tool</t>
+  </si>
+  <si>
     <t>Snowpack (snow water equivalent): available on Cal-Adapt (not sure the source) or Airborne Snow Observatory; Precipitation: PRISM, Evapotranspiration, Runoff and baseflow (also available on Cal-Adapt)</t>
   </si>
   <si>
+    <t>Snowpack (snow water equivalent)</t>
+  </si>
+  <si>
+    <t>Cal-Adapt or Airborne Snow Observatory</t>
+  </si>
+  <si>
+    <t>Evapotranspiration, Runoff and baseflow</t>
+  </si>
+  <si>
+    <t>Cal-Adapt</t>
+  </si>
+  <si>
     <t>Indicator 1: annual precipitation, Dataset 1: PRISM daily precipitation; Indicator 2: daily streamflow, Dataset 2: USGS Daily Streamflow Conditions data; Indicator 3: hydrologic network flow connectivity, Dataset 3: USGS National Hydrography Dataset</t>
+  </si>
+  <si>
+    <t>annual precipitation</t>
+  </si>
+  <si>
+    <t>PRISM daily precipitation</t>
+  </si>
+  <si>
+    <t>daily streamflow</t>
+  </si>
+  <si>
+    <t>USGS Daily Streamflow Conditions data</t>
+  </si>
+  <si>
+    <t>hydrologic network flow connectivity</t>
+  </si>
+  <si>
+    <t>USGS National Hydrography Dataset</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1061,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="18">
+  <tableStyles count="22">
     <tableStyle count="3" pivot="0" name="carbon-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1024,6 +1108,10 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="2" pivot="0" name="recreation-style 7">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="soil erosion control-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1056,6 +1144,18 @@
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="water-style 5">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="water-style 6">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="water-style 7">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="water-style 8">
       <tableStyleElement dxfId="3" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
@@ -1106,7 +1206,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F17" displayName="Table_11" name="Table_11" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E20:F20" displayName="Table_11" name="Table_11" id="11">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="recreation-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F17" displayName="Table_12" name="Table_12" id="12">
   <tableColumns count="6">
     <tableColumn name="Full name" id="1"/>
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify soil erosion control in your area(s)? (Example: Indicator 1: vegetation cover, Dataset 1: LANDFIRE's Existing Vegetation Type)_x000a_" id="2"/>
@@ -1119,8 +1229,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F16" displayName="Table_12" name="Table_12" id="12">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F16" displayName="Table_13" name="Table_13" id="13">
   <tableColumns count="6">
     <tableColumn name="Full name" id="1"/>
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify timber production in your area(s)? (Example: Indicator 1: Timber volume per hectare, Dataset 1: The Forest Inventory and Analysis tree vo..." id="2"/>
@@ -1133,8 +1243,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A18:F26" displayName="Table_13" name="Table_13" id="13">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A18:F28" displayName="Table_14" name="Table_14" id="14">
   <tableColumns count="6">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1147,8 +1257,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F21" displayName="Table_14" name="Table_14" id="14">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F21" displayName="Table_15" name="Table_15" id="15">
   <tableColumns count="6">
     <tableColumn name="Full name" id="1"/>
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify water supply in your area(s)? (Example: Indicator 1: Annual precipitation, Dataset 1: PRISM daily precipitation)" id="2"/>
@@ -1161,8 +1271,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A27:C29" displayName="Table_15" name="Table_15" id="15">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A27:C29" displayName="Table_16" name="Table_16" id="16">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1172,19 +1282,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A30:C30" displayName="Table_16" name="Table_16" id="16">
-  <tableColumns count="3">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E27:E29" displayName="Table_17" name="Table_17" id="17">
+  <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="water-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A31:C31" displayName="Table_17" name="Table_17" id="17">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A30:C30" displayName="Table_18" name="Table_18" id="18">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1194,12 +1302,10 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A32:C36" displayName="Table_18" name="Table_18" id="18">
-  <tableColumns count="3">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E30" displayName="Table_19" name="Table_19" id="19">
+  <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="water-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -1217,6 +1323,40 @@
     <tableColumn name="Indicator (primary categories)" id="7"/>
   </tableColumns>
   <tableStyleInfo name="carbon-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A31:C31" displayName="Table_20" name="Table_20" id="20">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="water-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E31" displayName="Table_21" name="Table_21" id="21">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="water-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A32:F40" displayName="Table_22" name="Table_22" id="22">
+  <tableColumns count="6">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+  </tableColumns>
+  <tableStyleInfo name="water-style 8" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1287,10 +1427,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B17:C21" displayName="Table_9" name="Table_9" id="9">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B17:D21" displayName="Table_9" name="Table_9" id="9">
+  <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="recreation-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -12369,8 +12510,8 @@
       <c r="D13" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>96</v>
+      <c r="E13" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>97</v>
@@ -12384,16 +12525,16 @@
         <v>95</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="F14" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -12401,15 +12542,15 @@
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -12417,15 +12558,15 @@
         <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -12433,19 +12574,19 @@
         <v>64</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -12453,17 +12594,17 @@
         <v>64</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -12471,14 +12612,14 @@
         <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -12487,19 +12628,19 @@
         <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -12507,19 +12648,19 @@
         <v>70</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -12527,19 +12668,19 @@
         <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="E22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23">
@@ -12547,19 +12688,19 @@
         <v>70</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -12587,7 +12728,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -12600,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -12700,19 +12844,19 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -12740,19 +12884,19 @@
         <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -12780,14 +12924,14 @@
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
@@ -12816,19 +12960,19 @@
         <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -12856,19 +13000,19 @@
         <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -12896,15 +13040,15 @@
         <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -12932,19 +13076,19 @@
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -12972,15 +13116,15 @@
         <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -13008,19 +13152,19 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -13048,15 +13192,15 @@
         <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -13089,7 +13233,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -13101,19 +13245,19 @@
         <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -13121,13 +13265,14 @@
         <v>61</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
@@ -13138,24 +13283,37 @@
         <v>65</v>
       </c>
       <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
@@ -13163,16 +13321,18 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
-    <tablePart r:id="rId8"/>
+  <tableParts count="7">
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13195,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -13295,14 +13455,14 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="14"/>
@@ -13331,19 +13491,19 @@
         <v>39</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -13371,19 +13531,19 @@
         <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -13411,19 +13571,19 @@
         <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -13541,19 +13701,19 @@
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -13561,19 +13721,19 @@
         <v>55</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
@@ -13581,30 +13741,34 @@
         <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>168</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
     </row>
@@ -13613,7 +13777,7 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -13625,7 +13789,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -13668,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -13691,19 +13855,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -13714,17 +13878,17 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -13735,17 +13899,17 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="20" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -13756,19 +13920,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="F5" s="20" t="s">
         <v>175</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>169</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -13779,19 +13943,19 @@
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -13802,17 +13966,17 @@
         <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -13823,14 +13987,14 @@
         <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="23"/>
@@ -13842,19 +14006,19 @@
         <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -13865,17 +14029,17 @@
         <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="20" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -13886,19 +14050,19 @@
         <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -13909,17 +14073,17 @@
         <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
@@ -13930,19 +14094,19 @@
         <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
@@ -13953,17 +14117,17 @@
         <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -14027,19 +14191,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -14047,19 +14211,19 @@
         <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -14067,19 +14231,19 @@
         <v>55</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -14087,19 +14251,19 @@
         <v>55</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
@@ -14107,66 +14271,128 @@
         <v>61</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="20"/>
+      <c r="B23" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="20"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -14184,8 +14410,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
@@ -14195,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -14231,19 +14459,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -14254,17 +14482,17 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="20" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -14275,19 +14503,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -14298,17 +14526,17 @@
         <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="20" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -14319,19 +14547,19 @@
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -14342,19 +14570,19 @@
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -14365,17 +14593,17 @@
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -14386,19 +14614,19 @@
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -14409,17 +14637,17 @@
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -14430,14 +14658,14 @@
         <v>28</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="23"/>
@@ -14449,19 +14677,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
@@ -14472,19 +14700,19 @@
         <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -14495,15 +14723,15 @@
         <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -14514,15 +14742,15 @@
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -14533,19 +14761,19 @@
         <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
@@ -14556,19 +14784,19 @@
         <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -14579,19 +14807,19 @@
         <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -14615,19 +14843,19 @@
         <v>46</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -14638,19 +14866,19 @@
         <v>46</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
@@ -14661,19 +14889,19 @@
         <v>46</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -14684,19 +14912,19 @@
         <v>46</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -14707,19 +14935,19 @@
         <v>46</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -14730,7 +14958,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -14738,10 +14966,13 @@
         <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>235</v>
+        <v>251</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="28">
@@ -14749,10 +14980,13 @@
         <v>55</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>216</v>
+        <v>232</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="29">
@@ -14760,10 +14994,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="30">
@@ -14771,10 +15008,13 @@
         <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>237</v>
+        <v>253</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -14782,10 +15022,13 @@
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>238</v>
+        <v>254</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="32">
@@ -14793,54 +15036,178 @@
         <v>61</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>239</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>256</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="5">
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+  <tableParts count="8">
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pre_workshop_survey/indicator_dataset_ES/indicator_dataset_ES.xlsx
+++ b/pre_workshop_survey/indicator_dataset_ES/indicator_dataset_ES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="276">
   <si>
     <t>Full name</t>
   </si>
@@ -247,6 +247,12 @@
     <t>Meghan Woods</t>
   </si>
   <si>
+    <t>Jeffrey Moore</t>
+  </si>
+  <si>
+    <t>Upekala Wijayratne</t>
+  </si>
+  <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify biodiversity in your area(s)? (Example: Indicator 1: species richness, Dataset 1: TreeMap forest type)
 </t>
   </si>
@@ -372,6 +378,9 @@
     <t>FIA NFI data</t>
   </si>
   <si>
+    <t>FIA National forest inventory (NFI)</t>
+  </si>
+  <si>
     <t>understory species richness</t>
   </si>
   <si>
@@ -381,7 +390,10 @@
     <t>EnviroAtlas, EPA and USGS National Gap Analysis Project</t>
   </si>
   <si>
-    <t>pecies richness and related biodiversity metrics by 12-digit HUC</t>
+    <t>Tao Huang</t>
+  </si>
+  <si>
+    <t>remote sensing spectral diversity</t>
   </si>
   <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify recreation in your area(s)? (Example: Indicator 1: visitor number/year, Dataset 1: publicly available geotagged Instagram posts)
@@ -497,6 +509,9 @@
     <t>LEMMA OSU/USFS</t>
   </si>
   <si>
+    <t>vegetation cover</t>
+  </si>
+  <si>
     <t>soil type</t>
   </si>
   <si>
@@ -526,9 +541,6 @@
   </si>
   <si>
     <t>I am not very familiar with soil erosion control datasets, but I would probably look at vegetation cover and our R6 Potential Vegetation Type  layer</t>
-  </si>
-  <si>
-    <t>vegetation cover</t>
   </si>
   <si>
     <t>R6 Potential Vegetation Type  layer</t>
@@ -549,6 +561,9 @@
   </si>
   <si>
     <t>not an area of expertise</t>
+  </si>
+  <si>
+    <t>Surface cover</t>
   </si>
   <si>
     <t>What indicator(s) and dataset(s) would you use to quantify timber production in your area(s)? (Example: Indicator 1: Timber volume per hectare, Dataset 1: The Forest Inventory and Analysis tree vo...</t>
@@ -871,7 +886,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -901,6 +916,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -941,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1003,8 +1022,14 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -1012,11 +1037,11 @@
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,7 +1213,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A27" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A29" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -1216,7 +1241,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F17" displayName="Table_12" name="Table_12" id="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F20" displayName="Table_12" name="Table_12" id="12">
   <tableColumns count="6">
     <tableColumn name="Full name" id="1"/>
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify soil erosion control in your area(s)? (Example: Indicator 1: vegetation cover, Dataset 1: LANDFIRE's Existing Vegetation Type)_x000a_" id="2"/>
@@ -1244,7 +1269,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A18:F28" displayName="Table_14" name="Table_14" id="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A18:F30" displayName="Table_14" name="Table_14" id="14">
   <tableColumns count="6">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1327,27 +1352,29 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A31:C31" displayName="Table_20" name="Table_20" id="20">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A31:D31" displayName="Table_20" name="Table_20" id="20">
+  <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
     <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
   </tableColumns>
   <tableStyleInfo name="water-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E31" displayName="Table_21" name="Table_21" id="21">
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E31:F31" displayName="Table_21" name="Table_21" id="21">
+  <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
   </tableColumns>
   <tableStyleInfo name="water-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A32:F40" displayName="Table_22" name="Table_22" id="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A32:F41" displayName="Table_22" name="Table_22" id="22">
   <tableColumns count="6">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1361,7 +1388,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A24" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A27" displayName="Table_3" name="Table_3" id="3">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -1418,7 +1445,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A17:A21" displayName="Table_8" name="Table_8" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A17:A23" displayName="Table_8" name="Table_8" id="8">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2260,7 +2287,9 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
+      <c r="A28" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="B28" s="12"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2270,7 +2299,9 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
+      <c r="A29" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -12080,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -12150,19 +12181,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -12190,17 +12221,17 @@
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -12228,19 +12259,19 @@
         <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -12268,15 +12299,15 @@
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -12304,19 +12335,19 @@
         <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -12344,19 +12375,19 @@
         <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -12414,14 +12445,14 @@
         <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
@@ -12450,16 +12481,16 @@
         <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -12486,15 +12517,15 @@
         <v>50</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -12502,19 +12533,19 @@
         <v>55</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -12522,19 +12553,19 @@
         <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -12542,15 +12573,15 @@
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -12558,15 +12589,15 @@
         <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -12574,19 +12605,19 @@
         <v>64</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -12594,17 +12625,17 @@
         <v>64</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -12612,14 +12643,14 @@
         <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -12628,19 +12659,19 @@
         <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -12648,19 +12679,19 @@
         <v>70</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -12668,19 +12699,19 @@
         <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -12688,19 +12719,19 @@
         <v>70</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -12712,6 +12743,24 @@
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12744,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -12844,19 +12893,19 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -12884,19 +12933,19 @@
         <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -12924,14 +12973,14 @@
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
@@ -12960,19 +13009,19 @@
         <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -13000,19 +13049,19 @@
         <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -13040,15 +13089,15 @@
         <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -13076,19 +13125,19 @@
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -13116,15 +13165,15 @@
         <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -13152,19 +13201,19 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -13192,15 +13241,15 @@
         <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -13233,7 +13282,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -13245,19 +13294,19 @@
         <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -13265,14 +13314,14 @@
         <v>61</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
@@ -13290,7 +13339,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -13300,19 +13349,19 @@
         <v>70</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>127</v>
+        <v>151</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
@@ -13322,6 +13371,16 @@
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13355,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -13455,14 +13514,14 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="14"/>
@@ -13491,19 +13550,19 @@
         <v>39</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -13531,19 +13590,19 @@
         <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -13571,19 +13630,19 @@
         <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -13701,19 +13760,19 @@
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -13721,19 +13780,19 @@
         <v>55</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
@@ -13741,19 +13800,19 @@
         <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
@@ -13761,50 +13820,86 @@
         <v>64</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+        <v>173</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+        <v>174</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="24"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13832,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -13855,283 +13950,283 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+        <v>180</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+        <v>182</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+        <v>184</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+        <v>190</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+        <v>180</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+        <v>182</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+        <v>184</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+        <v>198</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+        <v>199</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+        <v>201</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+        <v>202</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
@@ -14142,9 +14237,9 @@
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
@@ -14179,9 +14274,7 @@
       <c r="D17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="8" t="s">
         <v>54</v>
       </c>
@@ -14191,19 +14284,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
@@ -14211,19 +14304,19 @@
         <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -14231,19 +14324,19 @@
         <v>55</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -14251,19 +14344,19 @@
         <v>55</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -14271,19 +14364,19 @@
         <v>61</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
@@ -14291,19 +14384,19 @@
         <v>64</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
@@ -14311,17 +14404,17 @@
         <v>64</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
@@ -14329,19 +14422,19 @@
         <v>66</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -14349,19 +14442,19 @@
         <v>70</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27">
@@ -14369,19 +14462,19 @@
         <v>70</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
@@ -14393,6 +14486,26 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -14423,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -14450,380 +14563,380 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+        <v>227</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+        <v>229</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+        <v>229</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+        <v>229</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+        <v>238</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+        <v>239</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+        <v>242</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+        <v>243</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+        <v>244</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+        <v>245</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+        <v>247</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+        <v>242</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
@@ -14834,120 +14947,120 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="B22" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>245</v>
+      <c r="B23" s="27" t="s">
+        <v>250</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>224</v>
+        <v>237</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>224</v>
+        <v>237</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>245</v>
+      <c r="B24" s="27" t="s">
+        <v>250</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>224</v>
+        <v>252</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>224</v>
+        <v>252</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>245</v>
+      <c r="B25" s="27" t="s">
+        <v>250</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>224</v>
+        <v>253</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>224</v>
+        <v>253</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -14957,8 +15070,8 @@
       <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>249</v>
+      <c r="B26" s="21" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27">
@@ -14966,13 +15079,13 @@
         <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
@@ -14980,13 +15093,13 @@
         <v>55</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
@@ -14994,13 +15107,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
@@ -15008,13 +15121,13 @@
         <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
@@ -15022,49 +15135,59 @@
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>252</v>
+      <c r="A32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="E32" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F32" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>256</v>
+      <c r="A33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34">
@@ -15072,19 +15195,19 @@
         <v>66</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
@@ -15092,39 +15215,39 @@
         <v>66</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>259</v>
+      <c r="A36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>263</v>
+        <v>270</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="37">
@@ -15132,19 +15255,19 @@
         <v>70</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>226</v>
+        <v>272</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="38">
@@ -15152,50 +15275,50 @@
         <v>70</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>270</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
